--- a/biology/Botanique/Gerard_Sandifort/Gerard_Sandifort.xlsx
+++ b/biology/Botanique/Gerard_Sandifort/Gerard_Sandifort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerard Sandifort, né le 31 janvier 1779 à Leiden et mort le 11 mai 1848 dans la même ville, est un anatomiste néerlandais. Son père est Eduard Sandifort, professeur de médecine clinique et d'anatomie. À l'âge de treize ans, il aide déjà son père à réaliser des spécimens anatomiques. Il est devenu un taxidermiste et un dessinateur anatomique qualifié. En 1793, il commençe des études de médecine à l'Université de Leiden, où il est l'un des étudiants de Sebald Justinus Brugmans.
 À l'âge de dix-huit ans, il devient membre de la société des artistes de Tweede Rang (pratique du dessin, de la peinture et de la gravure) de la Société des Beschouwende en Werkdaadige Wis-, Bouw-, Natuur- en Tekenkunde (architecture, mathématiques, physique et dessin). Après deux ans, il rejoint la société de peinture et de dessin Ars Aemula Naturae, qui existe encore aujourd'hui. Il y est actif pendant cinq décennies en tant que membre du conseil d'administration et professeur d'anatomie pour les artistes visuels. Il a mis sur pied un cours intitulé Anatomie pour les artistes visuels (1815) dans lequel il a combiné ses connaissances et ses théories sur l'anatomie et l'art. Ce cours est conservé sous forme manuscrite après sa mort en 1848.
